--- a/用例数据/沪权/过期/测试结果.xlsx
+++ b/用例数据/沪权/过期/测试结果.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
+    <sheet name="futureposition2023" sheetId="2" r:id="rId2"/>
+    <sheet name="futurepositiondetail2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +20,656 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="210">
+  <si>
+    <t>SERIALNUM</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>CURRENCYID</t>
+  </si>
+  <si>
+    <t>RECKONINGTIME</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>PARTID</t>
+  </si>
+  <si>
+    <t>BANKID</t>
+  </si>
+  <si>
+    <t>CONTRACTNUM</t>
+  </si>
+  <si>
+    <t>BRANCHID</t>
+  </si>
+  <si>
+    <t>CUSTID</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>CUSTTYPE</t>
+  </si>
+  <si>
+    <t>EXCHID</t>
+  </si>
+  <si>
+    <t>ACCTID</t>
+  </si>
+  <si>
+    <t>ACCTNAME</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>OFFERREGID</t>
+  </si>
+  <si>
+    <t>F_PRODUCTID</t>
+  </si>
+  <si>
+    <t>STKID</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>DESKID</t>
+  </si>
+  <si>
+    <t>BSFLAG</t>
+  </si>
+  <si>
+    <t>SETTLEMENTPRICE</t>
+  </si>
+  <si>
+    <t>PRESETTLEMENTPRICE</t>
+  </si>
+  <si>
+    <t>KNOCKCODE</t>
+  </si>
+  <si>
+    <t>KNOCKQTY</t>
+  </si>
+  <si>
+    <t>KNOCKPRICE</t>
+  </si>
+  <si>
+    <t>KNOCKAMT</t>
+  </si>
+  <si>
+    <t>KNOCKTIME</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISION</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISION</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>CLOSEPNL</t>
+  </si>
+  <si>
+    <t>REALTIMEPNL</t>
+  </si>
+  <si>
+    <t>F_OFFSETFLAG</t>
+  </si>
+  <si>
+    <t>F_HEDGEFLAG</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>SETTLEDATE</t>
+  </si>
+  <si>
+    <t>DATASOURCE</t>
+  </si>
+  <si>
+    <t>TRADEOPTID</t>
+  </si>
+  <si>
+    <t>SETTLEOPTID</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>OPENPRICE</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>FLOATPNL</t>
+  </si>
+  <si>
+    <t>EVERYPOSITIONPNL</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISIONRATE</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>EXCHMARGINRATE</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>EXCHCLOSETDRATE</t>
+  </si>
+  <si>
+    <t>EXCHCLOSETDFEE</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISIONRATE</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>CUSTCLOSETDRATE</t>
+  </si>
+  <si>
+    <t>CUSTCLOSETDFEE</t>
+  </si>
+  <si>
+    <t>OFFERQTY</t>
+  </si>
+  <si>
+    <t>INTERCONTNUM</t>
+  </si>
+  <si>
+    <t>OPENLOCALORDERID</t>
+  </si>
+  <si>
+    <t>CUSTMARGINRATE</t>
+  </si>
+  <si>
+    <t>EXCHCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>CUSTCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>DUEFEE</t>
+  </si>
+  <si>
+    <t>DERATEFEE</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>COVEREDFLAG</t>
+  </si>
+  <si>
+    <t>INTERNALOFFSETFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGFEE</t>
+  </si>
+  <si>
+    <t>HANDLINGFEE</t>
+  </si>
+  <si>
+    <t>INTERNALCOVEREDFLAG</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>30000828</t>
+  </si>
+  <si>
+    <t>208_004_002</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>20230201235959</t>
+  </si>
+  <si>
+    <t>20230202110347</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A117212005</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>10002498</t>
+  </si>
+  <si>
+    <t>300ETF购12月3700</t>
+  </si>
+  <si>
+    <t>20140</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>121212121</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.000000000</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>20201120170553</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1210000.000000</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>121.000000000</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>30000829</t>
+  </si>
+  <si>
+    <t>10002715</t>
+  </si>
+  <si>
+    <t>300ETF沽12月5250</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>20201120170622</t>
+  </si>
+  <si>
+    <t>110000.000000</t>
+  </si>
+  <si>
+    <t>11.000000000</t>
+  </si>
+  <si>
+    <t>REGNAME</t>
+  </si>
+  <si>
+    <t>SETTLEGRP</t>
+  </si>
+  <si>
+    <t>PRODUCTGRP</t>
+  </si>
+  <si>
+    <t>PRODUCTCODE</t>
+  </si>
+  <si>
+    <t>PREPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>CURRENTPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>YDPOSITIONUSABLEQTY</t>
+  </si>
+  <si>
+    <t>TODAYPOSITIONUSABLEQTY</t>
+  </si>
+  <si>
+    <t>OPENFROZPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>TODAYOFFSFROZPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>YDOFFSFROZPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>MARGINFROZENAMT</t>
+  </si>
+  <si>
+    <t>MARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>TODAYPOSITIONCOST</t>
+  </si>
+  <si>
+    <t>DELIVERYDATE</t>
+  </si>
+  <si>
+    <t>TODAYCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>YDCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>AVERAGEOPENPRICE</t>
+  </si>
+  <si>
+    <t>TDPOSITIONINFO</t>
+  </si>
+  <si>
+    <t>EXCHMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>PRESINGLESELLQTY</t>
+  </si>
+  <si>
+    <t>ACCUMULATEOPENAMT</t>
+  </si>
+  <si>
+    <t>ACCUMULATECLOSEAMT</t>
+  </si>
+  <si>
+    <t>AVERAGEPRICE</t>
+  </si>
+  <si>
+    <t>TODAYOPENQTY</t>
+  </si>
+  <si>
+    <t>TODAYCLOSEQTY</t>
+  </si>
+  <si>
+    <t>COMBMARGINAMT</t>
+  </si>
+  <si>
+    <t>YDOFFERQTY</t>
+  </si>
+  <si>
+    <t>YDMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>TODAYPNL</t>
+  </si>
+  <si>
+    <t>TOTALCLOSEPNL</t>
+  </si>
+  <si>
+    <t>TDCLOSEPNL</t>
+  </si>
+  <si>
+    <t>TASPOSITIONQTY</t>
+  </si>
+  <si>
+    <t>TDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>YDEXERCISEQTY</t>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>焦振鹏期权</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>-1210000.00</t>
+  </si>
+  <si>
+    <t>121.00000000</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>11.00000000</t>
+  </si>
+  <si>
+    <t>ORDERID</t>
+  </si>
+  <si>
+    <t>OPTTIME</t>
+  </si>
+  <si>
+    <t>UNKNOCKQTY</t>
+  </si>
+  <si>
+    <t>CLOSEQTY</t>
+  </si>
+  <si>
+    <t>CLOSEKNOCKTIME</t>
+  </si>
+  <si>
+    <t>CLOSEORDERID</t>
+  </si>
+  <si>
+    <t>CLOSEKNOCKCODE</t>
+  </si>
+  <si>
+    <t>CLOSEPRICE</t>
+  </si>
+  <si>
+    <t>CLOSESTATUS</t>
+  </si>
+  <si>
+    <t>ARBICONTRACTNUM</t>
+  </si>
+  <si>
+    <t>POSITIONTYPE</t>
+  </si>
+  <si>
+    <t>CONTRACTTIMES</t>
+  </si>
+  <si>
+    <t>OPENCOMMISION</t>
+  </si>
+  <si>
+    <t>CLOSECOMMISION</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>121.0000</t>
+  </si>
+  <si>
+    <t>1210000.00</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>20201123170605</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>20201123170631</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +693,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +759,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +794,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +976,1686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CY14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>